--- a/rms-third-web/src/main/resources/excel/0619500.xlsx
+++ b/rms-third-web/src/main/resources/excel/0619500.xlsx
@@ -11,12 +11,12 @@
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="144525" calcCompleted="0" calcOnSave="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20">
   <si>
     <t>name</t>
   </si>
@@ -45,19 +45,31 @@
     <t>马园利</t>
   </si>
   <si>
+    <t>130123198810045434</t>
+  </si>
+  <si>
     <t>阎晋芳</t>
   </si>
   <si>
-    <t>140123199103130000</t>
+    <t>140123199103130249</t>
   </si>
   <si>
     <t>王露嘉</t>
   </si>
   <si>
+    <t>310105199706020021</t>
+  </si>
+  <si>
     <t>郑美娇</t>
   </si>
   <si>
-    <t>222403198810060000</t>
+    <t>222403198810060225</t>
+  </si>
+  <si>
+    <t>黄伊红</t>
+  </si>
+  <si>
+    <t>350623199412106628</t>
   </si>
   <si>
     <t>武洋</t>
@@ -71,12 +83,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="21">
+  <fonts count="20">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -85,17 +97,40 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -107,34 +142,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -145,21 +157,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -167,16 +164,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -190,9 +180,24 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -206,9 +211,17 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -223,14 +236,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -251,19 +256,151 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -275,157 +412,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -436,15 +441,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -459,6 +455,17 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -487,6 +494,39 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -501,198 +541,161 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="3" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="14" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="20" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1">
-      <alignment vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1041,13 +1044,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:H6"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="A7" sqref="A7:C7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="5" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="6" outlineLevelCol="7"/>
   <cols>
     <col min="2" max="2" width="12.8888888888889" customWidth="1"/>
     <col min="3" max="3" width="20.8888888888889" customWidth="1"/>
@@ -1079,59 +1082,70 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
-      <c r="A2" t="s">
+    <row r="2" s="1" customFormat="1" spans="1:3">
+      <c r="A2" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B2">
+      <c r="B2" s="1">
         <v>18911643682</v>
       </c>
-      <c r="C2">
-        <v>1.30123198810045e+17</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
-      <c r="A3" t="s">
+      <c r="C2" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B3">
+    </row>
+    <row r="3" s="1" customFormat="1" spans="1:3">
+      <c r="A3" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="1">
         <v>18735122351</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3">
-      <c r="A4" t="s">
         <v>11</v>
       </c>
-      <c r="B4">
+    </row>
+    <row r="4" s="1" customFormat="1" spans="1:3">
+      <c r="A4" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4" s="1">
         <v>13167056527</v>
       </c>
-      <c r="C4">
-        <v>3.1010519970602e+17</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
-      <c r="A5" t="s">
-        <v>12</v>
-      </c>
-      <c r="B5">
+      <c r="C4" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="5" s="1" customFormat="1" spans="1:3">
+      <c r="A5" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B5" s="1">
         <v>18810703567</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3">
-      <c r="A6" t="s">
-        <v>14</v>
-      </c>
-      <c r="B6">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="6" s="1" customFormat="1" spans="1:3">
+      <c r="A6" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B6" s="1">
+        <v>15659683006</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" t="s">
+        <v>18</v>
+      </c>
+      <c r="B7">
         <v>15171984639</v>
       </c>
-      <c r="C6" t="s">
-        <v>15</v>
+      <c r="C7" t="s">
+        <v>19</v>
       </c>
     </row>
   </sheetData>
@@ -1144,13 +1158,13 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:H6"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="A7" sqref="A7:C7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="5" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="6" outlineLevelCol="7"/>
   <cols>
     <col min="2" max="2" width="12.8888888888889" customWidth="1"/>
     <col min="3" max="3" width="20.8888888888889" customWidth="1"/>
@@ -1182,59 +1196,70 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
-      <c r="A2" t="s">
+    <row r="2" s="1" customFormat="1" spans="1:3">
+      <c r="A2" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B2">
+      <c r="B2" s="1">
         <v>18911643682</v>
       </c>
-      <c r="C2">
-        <v>1.30123198810045e+17</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
-      <c r="A3" t="s">
+      <c r="C2" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B3">
+    </row>
+    <row r="3" s="1" customFormat="1" spans="1:3">
+      <c r="A3" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="1">
         <v>18735122351</v>
       </c>
-      <c r="C3">
-        <v>1.4012319910313e+17</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3">
-      <c r="A4" t="s">
+      <c r="C3" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B4">
+    </row>
+    <row r="4" s="1" customFormat="1" spans="1:3">
+      <c r="A4" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4" s="1">
         <v>13167056527</v>
       </c>
-      <c r="C4">
-        <v>3.1010519970602e+17</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
-      <c r="A5" t="s">
-        <v>12</v>
-      </c>
-      <c r="B5">
+      <c r="C4" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="5" s="1" customFormat="1" spans="1:3">
+      <c r="A5" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B5" s="1">
         <v>18810703567</v>
       </c>
-      <c r="C5">
-        <v>2.2240319881006e+17</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3">
-      <c r="A6" t="s">
-        <v>14</v>
-      </c>
-      <c r="B6">
+      <c r="C5" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="6" s="1" customFormat="1" spans="1:3">
+      <c r="A6" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B6" s="1">
+        <v>15659683006</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" t="s">
+        <v>18</v>
+      </c>
+      <c r="B7">
         <v>15171984639</v>
       </c>
-      <c r="C6" t="s">
-        <v>15</v>
+      <c r="C7" t="s">
+        <v>19</v>
       </c>
     </row>
   </sheetData>
